--- a/data/outputs/management_elsevier/41.xlsx
+++ b/data/outputs/management_elsevier/41.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS113"/>
+  <dimension ref="A1:BU113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -935,6 +945,12 @@
           <t>2-s2.0-84941046065</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>7572</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1144,6 +1160,12 @@
           <t>2-s2.0-84941040766</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>7504</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1349,6 +1371,12 @@
           <t>2-s2.0-84941764876</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2087</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1566,6 +1594,12 @@
           <t>2-s2.0-84943539135</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>4296</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1767,6 +1801,12 @@
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1984,6 +2024,12 @@
           <t>2-s2.0-84944899218</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>5976</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2185,6 +2231,12 @@
           <t>2-s2.0-84945430946</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2688</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2390,6 +2442,12 @@
           <t>2-s2.0-84941272544</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>4343</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2599,6 +2657,12 @@
           <t>2-s2.0-84941284975</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>2555</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2808,6 +2872,12 @@
           <t>2-s2.0-84941781682</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1619</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3013,6 +3083,12 @@
           <t>2-s2.0-84941900048</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2748</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3228,6 +3304,12 @@
           <t>2-s2.0-84942311307</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>3306</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3451,6 +3533,12 @@
           <t>2-s2.0-84942588190</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>3400</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3656,6 +3744,12 @@
           <t>2-s2.0-84943577336</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>3082</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3869,6 +3963,12 @@
           <t>2-s2.0-84944036356</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>5161</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4082,6 +4182,12 @@
           <t>2-s2.0-84944041072</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>989</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4295,6 +4401,12 @@
           <t>2-s2.0-84944891932</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2093</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4510,6 +4622,12 @@
           <t>2-s2.0-84944901210</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>3896</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4731,6 +4849,12 @@
           <t>2-s2.0-84945127892</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>4651</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4952,6 +5076,12 @@
           <t>2-s2.0-84945138611</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>4030</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5159,6 +5289,12 @@
           <t>2-s2.0-84945420682</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>5417</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5380,6 +5516,12 @@
           <t>2-s2.0-84945374645</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>4296</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5585,6 +5727,12 @@
           <t>2-s2.0-84938220588</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>2825</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5800,6 +5948,12 @@
           <t>2-s2.0-84938273908</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>2256</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6005,6 +6159,12 @@
           <t>2-s2.0-84938233692</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>2087</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6218,6 +6378,12 @@
           <t>2-s2.0-84938876805</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1134</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6431,6 +6597,12 @@
           <t>2-s2.0-84949108896</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>4638</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6644,6 +6816,12 @@
           <t>2-s2.0-84949092552</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>5564</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6857,6 +7035,12 @@
           <t>2-s2.0-84949085078</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1506</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7076,6 +7260,12 @@
           <t>2-s2.0-84949091931</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1444</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7289,6 +7479,12 @@
           <t>2-s2.0-84949109731</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1730</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7506,6 +7702,12 @@
           <t>2-s2.0-84937492178</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7731,6 +7933,12 @@
           <t>2-s2.0-84938675791</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>3902</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7936,6 +8144,12 @@
           <t>2-s2.0-84955447946</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>3986</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8147,6 +8361,12 @@
           <t>2-s2.0-84940372959</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>8042</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8356,6 +8576,12 @@
           <t>2-s2.0-84940530548</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>6602</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8565,6 +8791,12 @@
           <t>2-s2.0-84949103946</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1781</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8774,6 +9006,12 @@
           <t>2-s2.0-84949111550</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>3781</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8985,6 +9223,12 @@
           <t>2-s2.0-84949113694</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>2456</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9200,6 +9444,12 @@
           <t>2-s2.0-84929336549</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>3096</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9417,6 +9667,12 @@
           <t>2-s2.0-84929165274</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>7737</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9630,6 +9886,12 @@
           <t>2-s2.0-84929399264</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>3745</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9843,6 +10105,12 @@
           <t>2-s2.0-84929594012</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>5060</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10060,6 +10328,12 @@
           <t>2-s2.0-84929601135</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>3489</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10273,6 +10547,12 @@
           <t>2-s2.0-84930958862</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>3157</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10486,6 +10766,12 @@
           <t>2-s2.0-84930936913</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>2450</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10703,6 +10989,12 @@
           <t>2-s2.0-84930936483</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>2284</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10920,6 +11212,12 @@
           <t>2-s2.0-84947254502</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>2582</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11137,6 +11435,12 @@
           <t>2-s2.0-84937149038</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>4079</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11342,6 +11646,12 @@
           <t>2-s2.0-84939238737</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>2615</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11547,6 +11857,12 @@
           <t>2-s2.0-84943821292</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1780</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11756,6 +12072,12 @@
           <t>2-s2.0-84943820614</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>3184</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11973,6 +12295,12 @@
           <t>2-s2.0-84936867934</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>1906</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12194,6 +12522,12 @@
           <t>2-s2.0-84943820808</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>6347</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12409,6 +12743,12 @@
           <t>2-s2.0-84943819922</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1688</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12630,6 +12970,12 @@
           <t>2-s2.0-84943818035</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>5567</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12845,6 +13191,12 @@
           <t>2-s2.0-84943813698</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>5878</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13054,6 +13406,12 @@
           <t>2-s2.0-84943660760</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>2534</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13277,6 +13635,12 @@
           <t>2-s2.0-84943818465</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>7662</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13482,6 +13846,12 @@
           <t>2-s2.0-84943816469</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>2882</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13687,6 +14057,12 @@
           <t>2-s2.0-84943818294</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>2157</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13912,6 +14288,12 @@
           <t>2-s2.0-84927593535</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>2383</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14121,6 +14503,12 @@
           <t>2-s2.0-84927918039</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>2117</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14334,6 +14722,12 @@
           <t>2-s2.0-84928124354</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>4975</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14551,6 +14945,12 @@
           <t>2-s2.0-84953449965</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>2144</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14756,6 +15156,12 @@
           <t>2-s2.0-84953377039</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>8014</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14973,6 +15379,12 @@
           <t>2-s2.0-84934271142</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>2423</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15190,6 +15602,12 @@
           <t>2-s2.0-84953636772</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>4724</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15413,6 +15831,12 @@
           <t>2-s2.0-84948752706</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>9805</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15626,6 +16050,12 @@
           <t>2-s2.0-84953638363</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>2765</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15839,6 +16269,12 @@
           <t>2-s2.0-84953637475</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>6522</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16044,6 +16480,12 @@
           <t>2-s2.0-84949810517</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>4940</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16249,6 +16691,12 @@
           <t>2-s2.0-84926026039</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>5023</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16458,6 +16906,12 @@
           <t>2-s2.0-84953636978</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>2817</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16673,6 +17127,12 @@
           <t>2-s2.0-84939982374</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>17750</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16880,6 +17340,12 @@
           <t>2-s2.0-84953382732</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>7492</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17093,6 +17559,12 @@
           <t>2-s2.0-84939953771</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>4769</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17306,6 +17778,12 @@
           <t>2-s2.0-84953378165</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>6914</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17519,6 +17997,12 @@
           <t>2-s2.0-84953380197</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>6965</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17724,6 +18208,12 @@
           <t>2-s2.0-84921902883</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>2068</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17929,6 +18419,12 @@
           <t>2-s2.0-84961302011</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>5372</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18138,6 +18634,12 @@
           <t>2-s2.0-84921961652</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>2213</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18343,6 +18845,12 @@
           <t>2-s2.0-84922139060</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>2759</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18556,6 +19064,12 @@
           <t>2-s2.0-84921971111</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>3360</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18761,6 +19275,12 @@
           <t>2-s2.0-84961367514</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>3017</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18966,6 +19486,12 @@
           <t>2-s2.0-84922981854</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>3812</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19179,6 +19705,12 @@
           <t>2-s2.0-84924954253</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>2249</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19392,6 +19924,12 @@
           <t>2-s2.0-84923289215</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1992</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19601,6 +20139,12 @@
           <t>2-s2.0-84924272863</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>3651</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19814,6 +20358,12 @@
           <t>2-s2.0-84924663991</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>1787</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20023,6 +20573,12 @@
           <t>2-s2.0-84922562105</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>2640</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20228,6 +20784,12 @@
           <t>2-s2.0-84923638926</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>4283</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20441,6 +21003,12 @@
           <t>2-s2.0-84924350025</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>6142</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20654,6 +21222,12 @@
           <t>2-s2.0-84924989433</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>2761</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20867,6 +21441,12 @@
           <t>2-s2.0-84928536159</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>3175</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21084,6 +21664,12 @@
           <t>2-s2.0-84911414211</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>4025</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21301,6 +21887,12 @@
           <t>2-s2.0-84918502746</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>4475</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21518,6 +22110,12 @@
           <t>2-s2.0-84919742555</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>2001</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21731,6 +22329,12 @@
           <t>2-s2.0-84919740835</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>4297</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21936,6 +22540,12 @@
           <t>2-s2.0-84920624608</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>2863</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22149,6 +22759,12 @@
           <t>2-s2.0-84920923511</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>3303</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22354,6 +22970,12 @@
           <t>2-s2.0-84920998435</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>6279</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22577,6 +23199,12 @@
           <t>2-s2.0-84922623568</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22790,6 +23418,12 @@
           <t>2-s2.0-84911215655</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>5517</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23011,6 +23645,12 @@
           <t>2-s2.0-84918836798</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>2343</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23220,6 +23860,12 @@
           <t>2-s2.0-84924331458</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>14167</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23433,6 +24079,12 @@
           <t>2-s2.0-84920884283</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>4154</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23648,6 +24300,12 @@
           <t>2-s2.0-84920920163</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>4493</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23861,6 +24519,12 @@
           <t>2-s2.0-84922522442</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>6167</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24066,6 +24730,12 @@
           <t>2-s2.0-84922552873</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>12395</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24275,6 +24945,12 @@
           <t>2-s2.0-84921001199</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>2389</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24480,6 +25156,12 @@
           <t>2-s2.0-84920991655</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>2492</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
